--- a/data/Hungary.xlsx
+++ b/data/Hungary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:F53"/>
     </sheetView>
   </sheetViews>
@@ -1024,524 +1024,212 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2185.1999999999998</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1232</v>
-      </c>
-      <c r="D28" s="4">
-        <v>590</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2205.5865880000001</v>
-      </c>
-      <c r="F28" s="6">
-        <v>20881</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2034</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1534</v>
-      </c>
-      <c r="D29" s="4">
-        <v>536</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2968.283864</v>
-      </c>
-      <c r="F29" s="6">
-        <v>28619</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1113.8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1580</v>
-      </c>
-      <c r="D30" s="4">
-        <v>540</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3057.2936800000002</v>
-      </c>
-      <c r="F30" s="6">
-        <v>29259</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2266.5</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1450</v>
-      </c>
-      <c r="D31" s="4">
-        <v>560</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2805.7442000000001</v>
-      </c>
-      <c r="F31" s="6">
-        <v>25893</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3150.7</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D32" s="4">
-        <v>650</v>
-      </c>
-      <c r="E32" s="5">
-        <v>3869.9920000000002</v>
-      </c>
-      <c r="F32" s="6">
-        <v>30769</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1961.6</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2267</v>
-      </c>
-      <c r="D33" s="4">
-        <v>621</v>
-      </c>
-      <c r="E33" s="5">
-        <v>4386.6359320000001</v>
-      </c>
-      <c r="F33" s="6">
-        <v>36506</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1981.6</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3184</v>
-      </c>
-      <c r="D34" s="4">
-        <v>672</v>
-      </c>
-      <c r="E34" s="5">
-        <v>6161.0272640000003</v>
-      </c>
-      <c r="F34" s="6">
-        <v>47381</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1938.6</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4967</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1068</v>
-      </c>
-      <c r="E35" s="5">
-        <v>9611.1251319999992</v>
-      </c>
-      <c r="F35" s="6">
-        <v>46507</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2416.6999999999998</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6304</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1120</v>
-      </c>
-      <c r="E36" s="5">
-        <v>12198.214784</v>
-      </c>
-      <c r="F36" s="6">
-        <v>56286</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15.75">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1541.2</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6166</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1357</v>
-      </c>
-      <c r="E37" s="5">
-        <v>11931.185336</v>
-      </c>
-      <c r="F37" s="6">
-        <v>45438</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="15.75">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2">
-        <v>986.2</v>
-      </c>
-      <c r="C38" s="3">
-        <v>11900</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E38" s="5">
-        <v>23026.452399999998</v>
-      </c>
-      <c r="F38" s="6">
-        <v>79333</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2">
-        <v>938.8</v>
-      </c>
-      <c r="C39" s="3">
-        <v>6724</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1700</v>
-      </c>
-      <c r="E39" s="5">
-        <v>13010.913103999999</v>
-      </c>
-      <c r="F39" s="6">
-        <v>39553</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15.75">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1016.1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8470</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E40" s="5">
-        <v>16389.416120000002</v>
-      </c>
-      <c r="F40" s="6">
-        <v>70583</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1063.8</v>
-      </c>
-      <c r="C41" s="3">
-        <v>9258</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1400</v>
-      </c>
-      <c r="E41" s="5">
-        <v>17914.192967999999</v>
-      </c>
-      <c r="F41" s="6">
-        <v>66129</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2">
-        <v>882.3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>9847</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1444</v>
-      </c>
-      <c r="E42" s="5">
-        <v>19053.905611999999</v>
-      </c>
-      <c r="F42" s="6">
-        <v>68193</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="15.75">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2">
-        <v>718.5</v>
-      </c>
-      <c r="C43" s="3">
-        <v>13306</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1950</v>
-      </c>
-      <c r="E43" s="5">
-        <v>25747.056776000001</v>
-      </c>
-      <c r="F43" s="6">
-        <v>68236</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15.75">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="2">
-        <v>946.6</v>
-      </c>
-      <c r="C44" s="3">
-        <v>19804</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2900</v>
-      </c>
-      <c r="E44" s="5">
-        <v>38320.660784</v>
-      </c>
-      <c r="F44" s="6">
-        <v>68290</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="15.75">
-      <c r="A45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="2">
-        <v>635.5</v>
-      </c>
-      <c r="C45" s="3">
-        <v>22277</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3300</v>
-      </c>
-      <c r="E45" s="5">
-        <v>43105.905892000002</v>
-      </c>
-      <c r="F45" s="6">
-        <v>67506</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="15.75">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="2">
-        <v>922.6</v>
-      </c>
-      <c r="C46" s="3">
-        <v>19834</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2900</v>
-      </c>
-      <c r="E46" s="5">
-        <v>38378.710663999998</v>
-      </c>
-      <c r="F46" s="6">
-        <v>68393</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="15.75">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="2">
-        <v>628.5</v>
-      </c>
-      <c r="C47" s="3">
-        <v>18135</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2700</v>
-      </c>
-      <c r="E47" s="5">
-        <v>35091.152459999998</v>
-      </c>
-      <c r="F47" s="6">
-        <v>67167</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15.75">
-      <c r="A48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="2">
-        <v>782.2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>19855</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2900</v>
-      </c>
-      <c r="E48" s="5">
-        <v>38419.345580000001</v>
-      </c>
-      <c r="F48" s="6">
-        <v>68466</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.75">
-      <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1908</v>
-      </c>
-      <c r="C49" s="3">
-        <v>18000</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3086</v>
-      </c>
-      <c r="E49" s="5">
-        <v>34829.928</v>
-      </c>
-      <c r="F49" s="6">
-        <v>58328</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1769.4</v>
-      </c>
-      <c r="C50" s="3">
-        <v>18116</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2700</v>
-      </c>
-      <c r="E50" s="5">
-        <v>35054.387536000002</v>
-      </c>
-      <c r="F50" s="6">
-        <v>67096</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15.75">
-      <c r="A51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1554.4</v>
-      </c>
-      <c r="C51" s="3">
-        <v>18116</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5800</v>
-      </c>
-      <c r="E51" s="5">
-        <v>35054.387536000002</v>
-      </c>
-      <c r="F51" s="6">
-        <v>31234</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="15.75">
-      <c r="A52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="2">
-        <v>971</v>
-      </c>
-      <c r="C52" s="3">
-        <v>22681</v>
-      </c>
-      <c r="D52" s="4">
-        <v>6300</v>
-      </c>
-      <c r="E52" s="5">
-        <v>43887.644275999999</v>
-      </c>
-      <c r="F52" s="6">
-        <v>36002</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="15.75">
-      <c r="A53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="2">
-        <v>472.3</v>
-      </c>
-      <c r="C53" s="3">
-        <v>26228</v>
-      </c>
-      <c r="D53" s="4">
-        <v>5732</v>
-      </c>
-      <c r="E53" s="5">
-        <v>50751.075087999998</v>
-      </c>
-      <c r="F53" s="6">
-        <v>45757</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="15.75">
       <c r="C54" s="3"/>
